--- a/biology/Zoologie/Jacques_Delamain/Jacques_Delamain.xlsx
+++ b/biology/Zoologie/Jacques_Delamain/Jacques_Delamain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Delamain est un ornithologue français, né le 20 décembre 1874 à Jarnac et mort le 5 février 1953 à Saint-Brice en Charente.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’associe à son beau-frère Jacques Boutelleau (alias Jacques Chardonne) et son frère Maurice Delamain (1883-1972), qui avaient acheté, en 1921, les éditions Stock. Il crée alors la collection les Livres de Nature, qui rassemble des textes  ayant trait à l’illustration et la défense du monde naturel. Il assure, avec sa femme Germaine, un certain nombre de traductions parues dans cette collection. La Librairie Delamain se trouve aujourd'hui devant la Comédie Française et le Palais Royal, au 155 rue Saint Honoré.
-Jacques Delamain fait paraître des livres d’ornithologie qui connaissent un très grand succès comme Pourquoi les oiseaux chantent (première édition en 1928, dernière réédition en 2011), qui sera récompensé par l'Académie Française et l'Académie des Sciences[1], Les Jours et les nuits des oiseaux (première édition en 1932, dernière réédition en 2014), Portraits d'oiseaux (deux volumes, 1938 et 1952), Les Oiseaux s'installent et s'en vont  (1942), ces deux derniers titres illustrés par le peintre animalier Roger Reboussin. Dans les tranchées pendant la Première Guerre mondiale, il note dans son Journal l'adaptation des oiseaux à la guerre, au bruit et aux destructions. Ses jumelles militaires lui permettent de s'échapper un moment de l'horreur[2],[3].
+Jacques Delamain fait paraître des livres d’ornithologie qui connaissent un très grand succès comme Pourquoi les oiseaux chantent (première édition en 1928, dernière réédition en 2011), qui sera récompensé par l'Académie Française et l'Académie des Sciences, Les Jours et les nuits des oiseaux (première édition en 1932, dernière réédition en 2014), Portraits d'oiseaux (deux volumes, 1938 et 1952), Les Oiseaux s'installent et s'en vont  (1942), ces deux derniers titres illustrés par le peintre animalier Roger Reboussin. Dans les tranchées pendant la Première Guerre mondiale, il note dans son Journal l'adaptation des oiseaux à la guerre, au bruit et aux destructions. Ses jumelles militaires lui permettent de s'échapper un moment de l'horreur,.
 Sa propriété à Saint-Brice est un refuge pour oiseaux placé sous la responsabilité de la Ligue pour la protection des oiseaux (LPO) et a été fréquentée par de nombreuses personnalités tant du monde scientifique, comme Jean Rostand (1894-1977), que du monde des arts, comme Olivier Messiaen (1908-1992) ou Charles Langbridge Morgan (1894-1958).
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur, 11 janvier 1832[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur, 11 janvier 1832</t>
         </is>
       </c>
     </row>
@@ -576,19 +592,92 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Articles
-« Reproduction des Becs-croisés en Charente au printemps 1911 », Revue française d'ornithologie, mai-juin 1912
-Livres
-Pourquoi les oiseaux chantent, Paris : libr. Stock, Delamain et Boutelleau, Collection : Les livres de nature, 1928
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Reproduction des Becs-croisés en Charente au printemps 1911 », Revue française d'ornithologie, mai-juin 1912</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Delamain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Delamain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre littéraire[5]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pourquoi les oiseaux chantent, Paris : libr. Stock, Delamain et Boutelleau, Collection : Les livres de nature, 1928
 Les Jours et les Nuits des oiseaux, Paris, libr. Stock, Delamain et Boutelleau, 1932
 Portraits d'oiseaux, Paris, Delamain et Boutelleau, 1940
 Les Oiseaux s'installent et s'en vont, Paris : Delamain et Boutelleau, 1942, 1942 (23F, sous l'Occupation)
 Journal de guerre d’un ornithologue, intégré à Pourquoi les oiseaux chantent
 1929 Calendrier ornithologique : les migrations de retour en mars 1929. Alauda, 1 : 100-101.
 1929 Mœurs sexuelles de l'Accenteur mouchet, Alauda, 1 : 266-269.
-1931 Calendrier ornithologique, Alauda, 3 : 311-313.
-Traductions avec Germaine Delamain[6]
-Stewart Edward White (1873-1946), Terres de silence,  Paris : Stock, Delamain et Boutelleau, 1922
+1931 Calendrier ornithologique, Alauda, 3 : 311-313.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Delamain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Delamain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre littéraire[5]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions avec Germaine Delamain[6]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Stewart Edward White (1873-1946), Terres de silence,  Paris : Stock, Delamain et Boutelleau, 1922
 Rudyard Kipling (1865-1936), Les Enfants du zodiaque, Paris : Stock (Delamain Boutelleau et Cie), 1923
 Stewart Edward White (1873-1946), Une poursuite dans les terres de silence,  Paris : Stock, Delamain et Boutelleau, 1927
 Charles George Douglas Roberts (1860-1943), Voisins mystérieux, Paris : Stock, Delamain et Boutelleau, 1929
